--- a/docs/sample.xlsx
+++ b/docs/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9480" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日本語" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t>ぶどう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grape</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -86,9 +102,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="179" formatCode="\$#,##0.00;\-\$#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -129,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,13 +160,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -460,7 +484,7 @@
       <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -480,6 +504,10 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3" s="6">
+        <f>J3*K3</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="4" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G4">
@@ -497,6 +525,10 @@
       <c r="K4">
         <v>2</v>
       </c>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L6" si="0">J4*K4</f>
+        <v>600</v>
+      </c>
     </row>
     <row r="5" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G5">
@@ -514,23 +546,31 @@
       <c r="K5">
         <v>3</v>
       </c>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
     </row>
     <row r="6" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G6">
         <v>4</v>
       </c>
+      <c r="L6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="7:12" x14ac:dyDescent="0.4">
       <c r="H7" t="s">
         <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:L7" si="0">SUM(K3:K6)</f>
+        <f t="shared" ref="K7:L7" si="1">SUM(K3:K6)</f>
         <v>6</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
+        <v>6800</v>
       </c>
     </row>
   </sheetData>
@@ -542,13 +582,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42645</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>42663</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42663</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7">
+        <f t="shared" ref="F7:G7" si="0">SUM(F3:F6)</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/sample.xlsx
+++ b/docs/sample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z00h800459\Source\Repos\CopyFromExcelToMarkdownAddIn\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\CopyToMarkdownAddIn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,22 @@
   </si>
   <si>
     <t>Grape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit Price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Volume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Price</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -105,10 +121,10 @@
   <numFmts count="4">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="179" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="\$#,##0.00;\-\$#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +139,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,15 +192,36 @@
     <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -585,7 +629,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B2" sqref="B2:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -597,92 +641,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>42645</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13">
+        <v>200</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>42663</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13">
+        <v>300</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="11">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C5" s="12">
+        <v>42663</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="11">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3">
+      <c r="C6" s="11"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
-        <v>42645</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42663</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>42663</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7">
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="11">
         <f t="shared" ref="F7:G7" si="0">SUM(F3:F6)</f>
         <v>6</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
